--- a/trunk/PRESUPUESTO Y EJEMPLO/PRESUPUESTO.xlsx
+++ b/trunk/PRESUPUESTO Y EJEMPLO/PRESUPUESTO.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="44">
   <si>
     <t>Piso:</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Switch</t>
   </si>
   <si>
-    <t>Estabilizador</t>
-  </si>
-  <si>
     <t>Precio</t>
   </si>
   <si>
@@ -60,9 +57,6 @@
     <t>Camara IP Wi-Fi</t>
   </si>
   <si>
-    <t>Switch Wi-Fi</t>
-  </si>
-  <si>
     <t>Access Point</t>
   </si>
   <si>
@@ -81,26 +75,86 @@
     <t>Materiales y equipos</t>
   </si>
   <si>
-    <t> 1.495,47</t>
-  </si>
-  <si>
     <t>Presupuesto total</t>
   </si>
   <si>
     <t>Conector RJ-45</t>
   </si>
   <si>
-    <t>Cable UTP 200M</t>
-  </si>
-  <si>
     <t>Armario 16U Rack 19""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cable UTP </t>
+  </si>
+  <si>
+    <t>Cable UTP</t>
+  </si>
+  <si>
+    <t>Fibra</t>
+  </si>
+  <si>
+    <t>Total bocas</t>
+  </si>
+  <si>
+    <t>Consumo</t>
+  </si>
+  <si>
+    <t>10A por boca max</t>
+  </si>
+  <si>
+    <t>15 bocas Max</t>
+  </si>
+  <si>
+    <t>Total consumo</t>
+  </si>
+  <si>
+    <t>Servidor</t>
+  </si>
+  <si>
+    <t>Estabilizador industrial</t>
+  </si>
+  <si>
+    <t>Conector fibra</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>Acces point</t>
+  </si>
+  <si>
+    <t>Tablero general</t>
+  </si>
+  <si>
+    <t>Termica</t>
+  </si>
+  <si>
+    <t>Disyuntor</t>
+  </si>
+  <si>
+    <t>Proyector</t>
+  </si>
+  <si>
+    <t>Termicas</t>
+  </si>
+  <si>
+    <t>Tomacorriente</t>
+  </si>
+  <si>
+    <t>UPS</t>
+  </si>
+  <si>
+    <t>Bocas</t>
+  </si>
+  <si>
+    <t>Precio por boca</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,8 +203,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,6 +220,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -217,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -261,6 +333,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K73"/>
+  <dimension ref="A2:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:E32"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N65" sqref="N65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,23 +676,23 @@
     <col min="13" max="13" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3"/>
       <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -607,10 +701,10 @@
         <v>3</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>8</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>2</v>
@@ -620,15 +714,15 @@
         <v>3</v>
       </c>
       <c r="J3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="5">
         <v>2</v>
@@ -637,11 +731,11 @@
         <v>810</v>
       </c>
       <c r="E4" s="10">
-        <f>D4*C4</f>
+        <f t="shared" ref="E4:E9" si="0">D4*C4</f>
         <v>1620</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" s="5">
         <v>2</v>
@@ -650,57 +744,153 @@
         <v>810</v>
       </c>
       <c r="K4" s="10">
-        <f>J4*I4</f>
+        <f t="shared" ref="K4:K9" si="1">J4*I4</f>
         <v>1620</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="5">
+        <v>13</v>
+      </c>
+      <c r="C5" s="10">
         <v>1</v>
       </c>
       <c r="D5" s="10">
-        <v>400</v>
+        <v>195</v>
       </c>
       <c r="E5" s="10">
-        <f>D5*C5</f>
-        <v>400</v>
+        <f t="shared" si="0"/>
+        <v>195</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="5">
+        <v>13</v>
+      </c>
+      <c r="I5" s="10">
         <v>1</v>
       </c>
       <c r="J5" s="10">
-        <v>400</v>
+        <v>195</v>
       </c>
       <c r="K5" s="10">
-        <f>J5*I5</f>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="10">
-        <v>1</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="C6" s="5">
+        <f>2*C5</f>
+        <v>2</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="H6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="10">
-        <v>1</v>
-      </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="I6" s="5">
+        <f>2*I5</f>
+        <v>2</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="10">
+        <v>7</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="E7" s="10">
+        <f t="shared" si="0"/>
+        <v>5.95</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="10">
+        <v>5</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="K7" s="10">
+        <f t="shared" si="1"/>
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10">
+        <v>12</v>
+      </c>
+      <c r="E8" s="10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="10">
+        <v>1</v>
+      </c>
+      <c r="J8" s="26">
+        <v>12</v>
+      </c>
+      <c r="K8" s="26">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="10">
+        <v>4</v>
+      </c>
+      <c r="D9" s="10">
+        <v>13</v>
+      </c>
+      <c r="E9" s="10">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="10">
+        <v>4</v>
+      </c>
+      <c r="J9" s="26">
+        <v>13</v>
+      </c>
+      <c r="K9" s="26">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -718,7 +908,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
@@ -726,10 +916,10 @@
         <v>3</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>8</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>9</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>2</v>
@@ -738,13 +928,16 @@
         <v>3</v>
       </c>
       <c r="J12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -752,25 +945,30 @@
         <v>1</v>
       </c>
       <c r="D13" s="10">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="E13" s="10">
         <f>D13*C13</f>
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I13" s="5">
-        <v>2</v>
-      </c>
-      <c r="J13" s="10"/>
+        <v>4</v>
+      </c>
+      <c r="J13" s="10">
+        <v>450</v>
+      </c>
       <c r="K13" s="10">
         <f>J13*I13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1800</v>
+      </c>
+      <c r="L13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
@@ -778,750 +976,1146 @@
         <v>10</v>
       </c>
       <c r="D14" s="10">
-        <v>0</v>
+        <v>1699</v>
       </c>
       <c r="E14" s="10">
-        <f t="shared" ref="E14" si="0">D14*C14</f>
-        <v>0</v>
+        <f t="shared" ref="E14" si="2">D14*C14</f>
+        <v>16990</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I14" s="5">
-        <v>20</v>
-      </c>
-      <c r="J14" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="J14" s="10">
+        <v>1699</v>
+      </c>
       <c r="K14" s="10">
-        <f t="shared" ref="K14" si="1">J14*I14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K14" si="3">J14*I14</f>
+        <v>35679</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="10">
+        <v>1700</v>
+      </c>
       <c r="E15" s="10">
         <f>D15*C15</f>
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I15" s="5">
-        <v>2</v>
-      </c>
-      <c r="J15" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="J15" s="10">
+        <v>1700</v>
+      </c>
       <c r="K15" s="10">
         <f>J15*I15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="C16" s="5">
+        <f>2*C14+2*C15+2*C19</f>
+        <v>24</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0.5</v>
+      </c>
       <c r="E16" s="10">
         <f>D16*C16</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="I16" s="5">
+        <f>2*I14+2*I15</f>
+        <v>44</v>
+      </c>
+      <c r="J16" s="10">
+        <v>0.5</v>
+      </c>
       <c r="K16" s="10">
         <f>J16*I16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="10">
-        <v>2</v>
+        <v>0.85</v>
       </c>
       <c r="E17" s="10">
-        <f>D17*C17</f>
+        <f t="shared" ref="E17:E23" si="4">D17*C17</f>
         <v>0</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="5"/>
+      <c r="I17" s="19"/>
       <c r="J17" s="10">
-        <v>2</v>
+        <v>0.85</v>
       </c>
       <c r="K17" s="10">
-        <f>J17*I17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K17:K20" si="5">J17*I17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="19"/>
+        <v>21</v>
+      </c>
+      <c r="C18" s="10">
+        <v>1</v>
+      </c>
       <c r="D18" s="10">
-        <v>200</v>
-      </c>
-      <c r="E18" s="19"/>
+        <v>1190</v>
+      </c>
+      <c r="E18" s="10">
+        <f t="shared" si="4"/>
+        <v>1190</v>
+      </c>
       <c r="H18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="19"/>
+        <v>21</v>
+      </c>
+      <c r="I18" s="10">
+        <v>1</v>
+      </c>
       <c r="J18" s="10">
-        <v>200</v>
-      </c>
-      <c r="K18" s="19"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1190</v>
+      </c>
+      <c r="K18" s="10">
+        <f t="shared" si="5"/>
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="10">
-        <v>1190</v>
-      </c>
-      <c r="E19" s="19"/>
+        <v>13</v>
+      </c>
+      <c r="C19" s="25">
+        <v>1</v>
+      </c>
+      <c r="D19" s="26">
+        <v>195</v>
+      </c>
+      <c r="E19" s="26">
+        <f t="shared" si="4"/>
+        <v>195</v>
+      </c>
       <c r="H19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I19" s="19"/>
-      <c r="J19" s="10">
-        <v>1190</v>
-      </c>
-      <c r="K19" s="19"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="2">
-        <v>2</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="G24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H24" s="2">
+        <v>39</v>
+      </c>
+      <c r="I19" s="25">
+        <v>6</v>
+      </c>
+      <c r="J19" s="26">
+        <v>12</v>
+      </c>
+      <c r="K19" s="26">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="25">
+        <v>4</v>
+      </c>
+      <c r="D20" s="26">
+        <v>2499</v>
+      </c>
+      <c r="E20" s="26">
+        <f t="shared" si="4"/>
+        <v>9996</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="10">
+        <v>63</v>
+      </c>
+      <c r="J20" s="26">
+        <v>13</v>
+      </c>
+      <c r="K20" s="26">
+        <f t="shared" si="5"/>
+        <v>819</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="25">
         <v>3</v>
       </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="7" t="s">
+      <c r="D21" s="26">
+        <v>12</v>
+      </c>
+      <c r="E21" s="26">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="10">
+        <v>30</v>
+      </c>
+      <c r="D22" s="26">
+        <v>13</v>
+      </c>
+      <c r="E22" s="26">
+        <f t="shared" si="4"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="25">
+        <v>1</v>
+      </c>
+      <c r="D23" s="10">
+        <v>5700</v>
+      </c>
+      <c r="E23" s="10">
+        <f t="shared" si="4"/>
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="G26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
         <v>3</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="I26" s="8"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I25" s="7" t="s">
+      <c r="H27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I27" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K27" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K25" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
+      <c r="L27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="5">
-        <v>2</v>
-      </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10">
-        <f>D26*C26</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" s="5">
-        <v>3</v>
-      </c>
-      <c r="J26" s="10">
-        <v>400</v>
-      </c>
-      <c r="K26" s="10">
-        <f>J26*I26</f>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="5">
-        <v>12</v>
-      </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10">
-        <f t="shared" ref="E27" si="2">D27*C27</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="5">
-        <v>16</v>
-      </c>
-      <c r="J27" s="10">
-        <v>3000</v>
-      </c>
-      <c r="K27" s="10">
-        <f t="shared" ref="K27" si="3">J27*I27</f>
-        <v>48000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="5">
         <v>6</v>
       </c>
-      <c r="C28" s="5">
-        <v>1</v>
-      </c>
-      <c r="D28" s="10"/>
+      <c r="D28" s="10">
+        <v>450</v>
+      </c>
       <c r="E28" s="10">
         <f>D28*C28</f>
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I28" s="5">
         <v>2</v>
       </c>
       <c r="J28" s="10">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="K28" s="10">
         <f>J28*I28</f>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>900</v>
+      </c>
+      <c r="L28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="10"/>
+        <v>5</v>
+      </c>
+      <c r="C29" s="5">
+        <v>14</v>
+      </c>
+      <c r="D29" s="10">
+        <v>1699</v>
+      </c>
       <c r="E29" s="10">
-        <f>D29*C29</f>
-        <v>0</v>
+        <f t="shared" ref="E29" si="6">D29*C29</f>
+        <v>23786</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I29" s="5">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="J29" s="10">
-        <v>300</v>
+        <v>1699</v>
       </c>
       <c r="K29" s="10">
-        <f>J29*I29</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K29" si="7">J29*I29</f>
+        <v>35679</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1</v>
+      </c>
       <c r="D30" s="10">
-        <v>2</v>
+        <v>1700</v>
       </c>
       <c r="E30" s="10">
         <f>D30*C30</f>
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="I30" s="5">
+        <v>1</v>
+      </c>
       <c r="J30" s="10">
-        <v>2</v>
+        <v>1700</v>
       </c>
       <c r="K30" s="10">
         <f>J30*I30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="C31" s="5">
+        <f>2*C29+2*C30</f>
+        <v>30</v>
+      </c>
       <c r="D31" s="10">
-        <v>200</v>
-      </c>
-      <c r="E31" s="19"/>
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="10">
+        <f>D31*C31</f>
+        <v>15</v>
+      </c>
       <c r="H31" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I31" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="I31" s="5">
+        <f>2*I29+2*I30</f>
+        <v>44</v>
+      </c>
       <c r="J31" s="10">
-        <v>200</v>
-      </c>
-      <c r="K31" s="19"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="K31" s="10">
+        <f>J31*I31</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="E32" s="10">
+        <f t="shared" ref="E32:E35" si="8">D32*C32</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="K32" s="10">
+        <f t="shared" ref="K32:K36" si="9">J32*I32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="10">
+        <v>1</v>
+      </c>
+      <c r="D33" s="10">
         <v>1190</v>
       </c>
-      <c r="E32" s="19"/>
-      <c r="H32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I32" s="19"/>
-      <c r="J32" s="10">
+      <c r="E33" s="10">
+        <f t="shared" si="8"/>
         <v>1190</v>
       </c>
-      <c r="K32" s="19"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="2">
+      <c r="H33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="10">
+        <v>1</v>
+      </c>
+      <c r="J33" s="10">
+        <v>1190</v>
+      </c>
+      <c r="K33" s="10">
+        <f t="shared" si="9"/>
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="10">
         <v>4</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="G37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H37" s="2">
+      <c r="D34" s="26">
+        <v>12</v>
+      </c>
+      <c r="E34" s="10">
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I34" s="25">
+        <v>1</v>
+      </c>
+      <c r="J34" s="26">
+        <v>3934</v>
+      </c>
+      <c r="K34" s="26">
+        <f t="shared" si="9"/>
+        <v>3934</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="10">
+        <v>42</v>
+      </c>
+      <c r="D35" s="26">
+        <v>13</v>
+      </c>
+      <c r="E35" s="10">
+        <f t="shared" si="8"/>
+        <v>546</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I35" s="25">
+        <v>6</v>
+      </c>
+      <c r="J35" s="26">
+        <v>12</v>
+      </c>
+      <c r="K35" s="26">
+        <f t="shared" si="9"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I36" s="10">
+        <v>63</v>
+      </c>
+      <c r="J36" s="26">
+        <v>13</v>
+      </c>
+      <c r="K36" s="26">
+        <f t="shared" si="9"/>
+        <v>819</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="2">
+        <v>4</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="G39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2">
         <v>5</v>
       </c>
-      <c r="I37" s="8"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="7" t="s">
+      <c r="I39" s="8"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D40" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I38" s="7" t="s">
+      <c r="H40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I40" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J38" s="9" t="s">
+      <c r="J40" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K40" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K38" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
+      <c r="L40">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="5">
-        <v>2</v>
-      </c>
-      <c r="D39" s="10">
-        <v>400</v>
-      </c>
-      <c r="E39" s="10">
-        <f>D39*C39</f>
-        <v>800</v>
-      </c>
-      <c r="H39" s="1" t="s">
+      <c r="C41" s="5">
         <v>4</v>
       </c>
-      <c r="I39" s="5">
-        <v>2</v>
-      </c>
-      <c r="J39" s="10">
-        <v>400</v>
-      </c>
-      <c r="K39" s="10">
-        <f>J39*I39</f>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="5">
-        <v>10</v>
-      </c>
-      <c r="D40" s="10">
-        <v>3000</v>
-      </c>
-      <c r="E40" s="10">
-        <f t="shared" ref="E40" si="4">D40*C40</f>
-        <v>30000</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I40" s="5">
-        <v>8</v>
-      </c>
-      <c r="J40" s="10">
-        <v>3000</v>
-      </c>
-      <c r="K40" s="10">
-        <f t="shared" ref="K40" si="5">J40*I40</f>
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="5">
-        <v>1</v>
-      </c>
       <c r="D41" s="10">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="E41" s="10">
         <f>D41*C41</f>
-        <v>400</v>
+        <v>1800</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I41" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J41" s="10">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="K41" s="10">
         <f>J41*I41</f>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1800</v>
+      </c>
+      <c r="L41">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="5">
+        <v>9</v>
+      </c>
+      <c r="D42" s="10">
+        <v>1699</v>
+      </c>
+      <c r="E42" s="10">
+        <f t="shared" ref="E42" si="10">D42*C42</f>
+        <v>15291</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="5">
         <v>7</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="10">
-        <v>300</v>
-      </c>
-      <c r="E42" s="10">
-        <f>D42*C42</f>
-        <v>0</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I42" s="5"/>
       <c r="J42" s="10">
-        <v>300</v>
+        <v>1699</v>
       </c>
       <c r="K42" s="10">
-        <f>J42*I42</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K42" si="11">J42*I42</f>
+        <v>11893</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="C43" s="5">
+        <v>1</v>
+      </c>
       <c r="D43" s="10">
-        <v>2</v>
+        <v>1700</v>
       </c>
       <c r="E43" s="10">
         <f>D43*C43</f>
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I43" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="I43" s="5">
+        <v>1</v>
+      </c>
       <c r="J43" s="10">
-        <v>2</v>
+        <v>1700</v>
       </c>
       <c r="K43" s="10">
         <f>J43*I43</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="5">
+        <f>2*C42+2*C43</f>
+        <v>20</v>
+      </c>
+      <c r="D44" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E44" s="10">
+        <f>D44*C44</f>
+        <v>10</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="5">
+        <f>2*I42+2*I43</f>
+        <v>16</v>
+      </c>
+      <c r="J44" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="K44" s="10">
+        <f>J44*I44</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="E45" s="10">
+        <f t="shared" ref="E45:E48" si="12">D45*C45</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="K45" s="10">
+        <f t="shared" ref="K45:K49" si="13">J45*I45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="10">
+        <v>1</v>
+      </c>
+      <c r="D46" s="10">
+        <v>1190</v>
+      </c>
+      <c r="E46" s="10">
+        <f t="shared" si="12"/>
+        <v>1190</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" s="10">
+        <v>1</v>
+      </c>
+      <c r="J46" s="10">
+        <v>1190</v>
+      </c>
+      <c r="K46" s="10">
+        <f t="shared" si="13"/>
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="25">
+        <v>3</v>
+      </c>
+      <c r="D47" s="26">
+        <v>12</v>
+      </c>
+      <c r="E47" s="26">
+        <f t="shared" si="12"/>
+        <v>36</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="25">
+        <v>1</v>
+      </c>
+      <c r="J47" s="26">
+        <v>3935</v>
+      </c>
+      <c r="K47" s="26">
+        <f t="shared" si="13"/>
+        <v>3935</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="10">
+        <v>27</v>
+      </c>
+      <c r="D48" s="26">
+        <v>13</v>
+      </c>
+      <c r="E48" s="26">
+        <f t="shared" si="12"/>
+        <v>351</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I48" s="25">
+        <v>2</v>
+      </c>
+      <c r="J48" s="26">
+        <v>12</v>
+      </c>
+      <c r="K48" s="26">
+        <f t="shared" si="13"/>
         <v>24</v>
       </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="10">
-        <v>200</v>
-      </c>
-      <c r="E44" s="19"/>
-      <c r="H44" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I44" s="19"/>
-      <c r="J44" s="10">
-        <v>200</v>
-      </c>
-      <c r="K44" s="19"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="10">
-        <v>1190</v>
-      </c>
-      <c r="E45" s="19"/>
-      <c r="H45" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I45" s="19"/>
-      <c r="J45" s="10">
-        <v>1190</v>
-      </c>
-      <c r="K45" s="19"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="H49" s="12"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C50" s="7" t="s">
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G49" s="12"/>
+      <c r="H49" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I49" s="29">
+        <v>21</v>
+      </c>
+      <c r="J49" s="26">
+        <v>13</v>
+      </c>
+      <c r="K49" s="26">
+        <f t="shared" si="13"/>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="H51" s="12"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D52" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H50" s="11"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
+      <c r="G52" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H52" s="21"/>
+      <c r="L52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="5">
-        <v>1</v>
-      </c>
-      <c r="D51" s="10">
-        <v>400</v>
-      </c>
-      <c r="E51" s="10">
-        <f>D51*C51</f>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="5">
-        <v>2</v>
-      </c>
-      <c r="D52" s="10">
-        <v>3000</v>
-      </c>
-      <c r="E52" s="10">
-        <f t="shared" ref="E52:E53" si="6">D52*C52</f>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="C53" s="5">
         <v>1</v>
       </c>
       <c r="D53" s="10">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="E53" s="10">
         <f>D53*C53</f>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="C54" s="5">
+        <v>2</v>
+      </c>
       <c r="D54" s="10">
-        <v>300</v>
+        <v>1699</v>
       </c>
       <c r="E54" s="10">
-        <f>D54*C54</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E54" si="14">D54*C54</f>
+        <v>3398</v>
+      </c>
+      <c r="H54" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10">
+        <f t="shared" ref="K54:K59" si="15">I54*J54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C55" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="C55" s="5">
+        <v>1</v>
+      </c>
       <c r="D55" s="10">
-        <v>2</v>
+        <v>1700</v>
       </c>
       <c r="E55" s="10">
         <f>D55*C55</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1700</v>
+      </c>
+      <c r="H55" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C56" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="C56" s="5">
+        <f>2*C54+2*C55</f>
+        <v>6</v>
+      </c>
       <c r="D56" s="10">
-        <v>200</v>
-      </c>
-      <c r="E56" s="19"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="E56" s="10">
+        <f>D56*C56</f>
+        <v>3</v>
+      </c>
+      <c r="H56" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I56" s="10">
+        <v>1</v>
+      </c>
+      <c r="J56" s="10">
+        <v>20000</v>
+      </c>
+      <c r="K56" s="10">
+        <f t="shared" si="15"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C57" s="19"/>
+        <v>23</v>
+      </c>
+      <c r="C57" s="10"/>
       <c r="D57" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="E57" s="10">
+        <f t="shared" ref="E57:E61" si="16">D57*C57</f>
+        <v>0</v>
+      </c>
+      <c r="H57" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="I57" s="10">
+        <v>1</v>
+      </c>
+      <c r="J57" s="10">
+        <v>1400</v>
+      </c>
+      <c r="K57" s="10">
+        <f t="shared" si="15"/>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" s="10">
+        <v>1</v>
+      </c>
+      <c r="D58" s="10">
         <v>1190</v>
       </c>
-      <c r="E57" s="19"/>
-    </row>
-    <row r="59" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-    </row>
-    <row r="60" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="18"/>
-    </row>
-    <row r="61" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E58" s="10">
+        <f t="shared" si="16"/>
+        <v>1190</v>
+      </c>
+      <c r="H58" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="I58" s="10">
+        <v>16</v>
+      </c>
+      <c r="J58" s="10">
+        <v>12</v>
+      </c>
+      <c r="K58" s="10">
+        <f t="shared" si="15"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" s="25">
+        <v>1</v>
+      </c>
+      <c r="D59" s="26">
+        <v>195</v>
+      </c>
+      <c r="E59" s="26">
+        <f t="shared" si="16"/>
+        <v>195</v>
+      </c>
+      <c r="H59" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="I59" s="10">
+        <v>7</v>
+      </c>
+      <c r="J59" s="26">
+        <v>60</v>
+      </c>
+      <c r="K59" s="10">
+        <f t="shared" si="15"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" s="25">
+        <v>1</v>
+      </c>
+      <c r="D60" s="26">
+        <v>12</v>
+      </c>
+      <c r="E60" s="26">
+        <f t="shared" si="16"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C61" s="10">
+        <v>6</v>
+      </c>
+      <c r="D61" s="26">
+        <v>13</v>
+      </c>
+      <c r="E61" s="26">
+        <f t="shared" si="16"/>
+        <v>78</v>
+      </c>
       <c r="I61" s="18"/>
       <c r="J61" s="18"/>
       <c r="K61" s="18"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F64" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="65" spans="6:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="F65" s="16"/>
-    </row>
-    <row r="66" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F66" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F67" s="15"/>
+    <row r="62" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D62" s="27"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="18"/>
+    </row>
+    <row r="63" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H63" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="I63" s="18">
+        <f>C61+I49+C48+I36+I20+C22+I9+C9</f>
+        <v>218</v>
+      </c>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H64" s="30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F66" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="6:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="F67" s="16"/>
     </row>
     <row r="68" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F68" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I68" s="18">
-        <v>400.15</v>
+      <c r="F68" s="14" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F69" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I69" s="18">
-        <v>450.2</v>
-      </c>
+      <c r="F69" s="15"/>
     </row>
     <row r="70" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F70" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I70" s="17">
+        <v>15</v>
+      </c>
+      <c r="I70" s="18">
+        <v>400.15</v>
+      </c>
+    </row>
+    <row r="71" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F71" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I71" s="18">
+        <v>450.2</v>
+      </c>
+    </row>
+    <row r="72" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F72" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I72" s="17">
         <v>620.29999999999995</v>
       </c>
     </row>
-    <row r="71" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F71" s="17"/>
-    </row>
-    <row r="72" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F72" s="17"/>
-    </row>
     <row r="73" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F73" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I73" s="20" t="s">
-        <v>21</v>
-      </c>
+      <c r="F73" s="17"/>
+    </row>
+    <row r="74" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F74" s="17"/>
+    </row>
+    <row r="75" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F75" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I75" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1531,13 +2125,764 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:O61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="H3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10">
+        <f>E5*D5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="5">
+        <v>2</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10">
+        <f>K5*J5</f>
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10">
+        <f>E6*D6</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="10">
+        <v>1</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10">
+        <f>K6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C7" s="1"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="H12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10">
+        <f>E14*D14</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="5">
+        <v>2</v>
+      </c>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10">
+        <f>K14*J14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="5">
+        <v>10</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10">
+        <f t="shared" ref="F15" si="0">E15*D15</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="5">
+        <v>20</v>
+      </c>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10">
+        <f t="shared" ref="L15" si="1">K15*J15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10">
+        <f>E16*D16</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="5">
+        <v>2</v>
+      </c>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10">
+        <f>K16*J16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="19"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="19"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="H25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>3</v>
+      </c>
+      <c r="J25" s="8"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="5">
+        <v>2</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10">
+        <f>E27*D27</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="5">
+        <v>3</v>
+      </c>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10">
+        <f>K27*J27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="5">
+        <v>14</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10">
+        <f t="shared" ref="F28" si="2">E28*D28</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J28" s="5">
+        <v>21</v>
+      </c>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10">
+        <f t="shared" ref="L28" si="3">K28*J28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10">
+        <f>E29*D29</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J29" s="5">
+        <v>2</v>
+      </c>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10">
+        <f>K29*J29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C30" s="1"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C31" s="1"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C32" s="1"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C33" s="1"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2">
+        <v>4</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="H38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2">
+        <v>5</v>
+      </c>
+      <c r="J38" s="8"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="5">
+        <v>2</v>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10">
+        <f>E40*D40</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J40" s="5">
+        <v>2</v>
+      </c>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10">
+        <f>K40*J40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="5">
+        <v>10</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10">
+        <f t="shared" ref="F41" si="4">E41*D41</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="5">
+        <v>8</v>
+      </c>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10">
+        <f t="shared" ref="L41" si="5">K41*J41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="5">
+        <v>1</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10">
+        <f>E42*D42</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J42" s="5">
+        <v>1</v>
+      </c>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10">
+        <f>K42*J42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C43" s="1"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C44" s="1"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C45" s="1"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C46" s="1"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="5">
+        <v>1</v>
+      </c>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10">
+        <f>E52*D52</f>
+        <v>0</v>
+      </c>
+      <c r="H52" s="11"/>
+      <c r="I52" t="s">
+        <v>29</v>
+      </c>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="11"/>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="5">
+        <v>2</v>
+      </c>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10">
+        <f t="shared" ref="F53" si="6">E53*D53</f>
+        <v>0</v>
+      </c>
+      <c r="H53" s="11"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="5">
+        <v>1</v>
+      </c>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10">
+        <f>E54*D54</f>
+        <v>0</v>
+      </c>
+      <c r="H54" s="11"/>
+      <c r="I54" t="s">
+        <v>25</v>
+      </c>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C55" s="1"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C56" s="1"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C57" s="1"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C58" s="1"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+    </row>
+    <row r="60" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="18"/>
+    </row>
+    <row r="61" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J61" s="18"/>
+      <c r="K61" s="18"/>
+      <c r="L61" s="18"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/trunk/PRESUPUESTO Y EJEMPLO/PRESUPUESTO.xlsx
+++ b/trunk/PRESUPUESTO Y EJEMPLO/PRESUPUESTO.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="46">
   <si>
     <t>Piso:</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>Precio por boca</t>
+  </si>
+  <si>
+    <t>Modem Router</t>
+  </si>
+  <si>
+    <t>Switch Fibra</t>
   </si>
 </sst>
 </file>
@@ -656,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L75"/>
+  <dimension ref="A2:L76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N65" sqref="N65"/>
+      <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,17 +1004,17 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
       </c>
       <c r="D15" s="10">
-        <v>1700</v>
+        <v>125</v>
       </c>
       <c r="E15" s="10">
         <f>D15*C15</f>
-        <v>1700</v>
+        <v>125</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>6</v>
@@ -1026,18 +1032,17 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C16" s="5">
-        <f>2*C14+2*C15+2*C19</f>
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D16" s="10">
-        <v>0.5</v>
+        <v>4120</v>
       </c>
       <c r="E16" s="10">
         <f>D16*C16</f>
-        <v>12</v>
+        <v>4120</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>20</v>
@@ -1056,15 +1061,17 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="19"/>
+        <v>6</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
       <c r="D17" s="10">
-        <v>0.85</v>
+        <v>1700</v>
       </c>
       <c r="E17" s="10">
-        <f t="shared" ref="E17:E23" si="4">D17*C17</f>
-        <v>0</v>
+        <f>D17*C17</f>
+        <v>1700</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>23</v>
@@ -1074,80 +1081,79 @@
         <v>0.85</v>
       </c>
       <c r="K17" s="10">
-        <f t="shared" ref="K17:K20" si="5">J17*I17</f>
+        <f t="shared" ref="K17:K20" si="4">J17*I17</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="5">
+        <f>2*C14+2*C17+2*C21</f>
+        <v>24</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="10">
+        <f>D18*C18</f>
+        <v>12</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="10">
-        <v>1</v>
-      </c>
-      <c r="D18" s="10">
+      <c r="I18" s="10">
+        <v>1</v>
+      </c>
+      <c r="J18" s="10">
         <v>1190</v>
       </c>
-      <c r="E18" s="10">
+      <c r="K18" s="10">
         <f t="shared" si="4"/>
         <v>1190</v>
       </c>
-      <c r="H18" s="1" t="s">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="E19" s="10">
+        <f t="shared" ref="E19:E25" si="5">D19*C19</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="25">
+        <v>6</v>
+      </c>
+      <c r="J19" s="26">
+        <v>12</v>
+      </c>
+      <c r="K19" s="26">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="10">
-        <v>1</v>
-      </c>
-      <c r="J18" s="10">
+      <c r="C20" s="10">
+        <v>1</v>
+      </c>
+      <c r="D20" s="10">
         <v>1190</v>
       </c>
-      <c r="K18" s="10">
+      <c r="E20" s="10">
         <f t="shared" si="5"/>
         <v>1190</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="25">
-        <v>1</v>
-      </c>
-      <c r="D19" s="26">
-        <v>195</v>
-      </c>
-      <c r="E19" s="26">
-        <f t="shared" si="4"/>
-        <v>195</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" s="25">
-        <v>6</v>
-      </c>
-      <c r="J19" s="26">
-        <v>12</v>
-      </c>
-      <c r="K19" s="26">
-        <f t="shared" si="5"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="25">
-        <v>4</v>
-      </c>
-      <c r="D20" s="26">
-        <v>2499</v>
-      </c>
-      <c r="E20" s="26">
-        <f t="shared" si="4"/>
-        <v>9996</v>
-      </c>
       <c r="H20" s="1" t="s">
         <v>40</v>
       </c>
@@ -1158,964 +1164,994 @@
         <v>13</v>
       </c>
       <c r="K20" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>819</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C21" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21" s="26">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="E21" s="26">
-        <f t="shared" si="4"/>
-        <v>36</v>
+        <f t="shared" si="5"/>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="10">
         <v>30</v>
       </c>
+      <c r="C22" s="25">
+        <v>4</v>
+      </c>
       <c r="D22" s="26">
-        <v>13</v>
+        <v>2499</v>
       </c>
       <c r="E22" s="26">
-        <f t="shared" si="4"/>
-        <v>390</v>
+        <f t="shared" si="5"/>
+        <v>9996</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="25">
+        <v>3</v>
+      </c>
+      <c r="D23" s="26">
+        <v>12</v>
+      </c>
+      <c r="E23" s="26">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="10">
+        <v>30</v>
+      </c>
+      <c r="D24" s="26">
+        <v>13</v>
+      </c>
+      <c r="E24" s="26">
+        <f t="shared" si="5"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="25">
-        <v>1</v>
-      </c>
-      <c r="D23" s="10">
+      <c r="C25" s="25">
+        <v>1</v>
+      </c>
+      <c r="D25" s="10">
         <v>5700</v>
       </c>
-      <c r="E23" s="10">
-        <f t="shared" si="4"/>
+      <c r="E25" s="10">
+        <f t="shared" si="5"/>
         <v>5700</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="2">
-        <v>2</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="G26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H26" s="2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="G27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
         <v>3</v>
       </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="L27">
-        <v>20</v>
-      </c>
+      <c r="I27" s="8"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="5">
-        <v>6</v>
-      </c>
-      <c r="D28" s="10">
-        <v>450</v>
-      </c>
-      <c r="E28" s="10">
-        <f>D28*C28</f>
-        <v>2700</v>
+        <v>2</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I28" s="5">
-        <v>2</v>
-      </c>
-      <c r="J28" s="10">
-        <v>450</v>
-      </c>
-      <c r="K28" s="10">
-        <f>J28*I28</f>
-        <v>900</v>
+        <v>2</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="L28">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29" s="5">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D29" s="10">
-        <v>1699</v>
+        <v>450</v>
       </c>
       <c r="E29" s="10">
-        <f t="shared" ref="E29" si="6">D29*C29</f>
-        <v>23786</v>
+        <f>D29*C29</f>
+        <v>2700</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I29" s="5">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="J29" s="10">
-        <v>1699</v>
+        <v>450</v>
       </c>
       <c r="K29" s="10">
-        <f t="shared" ref="K29" si="7">J29*I29</f>
-        <v>35679</v>
+        <f>J29*I29</f>
+        <v>900</v>
+      </c>
+      <c r="L29">
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30" s="5">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D30" s="10">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="E30" s="10">
-        <f>D30*C30</f>
-        <v>1700</v>
+        <f t="shared" ref="E30" si="6">D30*C30</f>
+        <v>23786</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I30" s="5">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="J30" s="10">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="K30" s="10">
-        <f>J30*I30</f>
-        <v>1700</v>
+        <f t="shared" ref="K30" si="7">J30*I30</f>
+        <v>35679</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C31" s="5">
-        <f>2*C29+2*C30</f>
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D31" s="10">
-        <v>0.5</v>
+        <v>1700</v>
       </c>
       <c r="E31" s="10">
         <f>D31*C31</f>
-        <v>15</v>
+        <v>1700</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I31" s="5">
-        <f>2*I29+2*I30</f>
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="J31" s="10">
-        <v>0.5</v>
+        <v>1700</v>
       </c>
       <c r="K31" s="10">
         <f>J31*I31</f>
-        <v>22</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="C32" s="5">
+        <f>2*C30+2*C31</f>
+        <v>30</v>
+      </c>
       <c r="D32" s="10">
-        <v>0.85</v>
+        <v>0.5</v>
       </c>
       <c r="E32" s="10">
-        <f t="shared" ref="E32:E35" si="8">D32*C32</f>
-        <v>0</v>
+        <f>D32*C32</f>
+        <v>15</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I32" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="I32" s="5">
+        <f>2*I30+2*I31</f>
+        <v>44</v>
+      </c>
       <c r="J32" s="10">
-        <v>0.85</v>
+        <v>0.5</v>
       </c>
       <c r="K32" s="10">
-        <f t="shared" ref="K32:K36" si="9">J32*I32</f>
-        <v>0</v>
+        <f>J32*I32</f>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="E33" s="10">
+        <f t="shared" ref="E33:E36" si="8">D33*C33</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="K33" s="10">
+        <f t="shared" ref="K33:K37" si="9">J33*I33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="10">
-        <v>1</v>
-      </c>
-      <c r="D33" s="10">
+      <c r="C34" s="10">
+        <v>1</v>
+      </c>
+      <c r="D34" s="10">
         <v>1190</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E34" s="10">
         <f t="shared" si="8"/>
         <v>1190</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I33" s="10">
-        <v>1</v>
-      </c>
-      <c r="J33" s="10">
+      <c r="I34" s="10">
+        <v>1</v>
+      </c>
+      <c r="J34" s="10">
         <v>1190</v>
       </c>
-      <c r="K33" s="10">
+      <c r="K34" s="10">
         <f t="shared" si="9"/>
         <v>1190</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C35" s="10">
         <v>4</v>
       </c>
-      <c r="D34" s="26">
+      <c r="D35" s="26">
         <v>12</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E35" s="10">
         <f t="shared" si="8"/>
         <v>48</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I34" s="25">
-        <v>1</v>
-      </c>
-      <c r="J34" s="26">
+      <c r="I35" s="25">
+        <v>1</v>
+      </c>
+      <c r="J35" s="26">
         <v>3934</v>
       </c>
-      <c r="K34" s="26">
+      <c r="K35" s="26">
         <f t="shared" si="9"/>
         <v>3934</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C36" s="10">
         <v>42</v>
       </c>
-      <c r="D35" s="26">
+      <c r="D36" s="26">
         <v>13</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E36" s="10">
         <f t="shared" si="8"/>
         <v>546</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I35" s="25">
+      <c r="I36" s="25">
         <v>6</v>
       </c>
-      <c r="J35" s="26">
+      <c r="J36" s="26">
         <v>12</v>
       </c>
-      <c r="K35" s="26">
+      <c r="K36" s="26">
         <f t="shared" si="9"/>
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H36" s="1" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H37" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I36" s="10">
+      <c r="I37" s="10">
         <v>63</v>
       </c>
-      <c r="J36" s="26">
+      <c r="J37" s="26">
         <v>13</v>
       </c>
-      <c r="K36" s="26">
+      <c r="K37" s="26">
         <f t="shared" si="9"/>
         <v>819</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="2">
         <v>4</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="G39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H39" s="2">
+      <c r="C40" s="8"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="G40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2">
         <v>5</v>
       </c>
-      <c r="I39" s="8"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J40" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K40" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="L40">
-        <v>13</v>
-      </c>
+      <c r="I40" s="8"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="5">
-        <v>4</v>
-      </c>
-      <c r="D41" s="10">
-        <v>450</v>
-      </c>
-      <c r="E41" s="10">
-        <f>D41*C41</f>
-        <v>1800</v>
+        <v>2</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I41" s="5">
-        <v>4</v>
-      </c>
-      <c r="J41" s="10">
-        <v>450</v>
-      </c>
-      <c r="K41" s="10">
-        <f>J41*I41</f>
-        <v>1800</v>
+        <v>2</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="L41">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C42" s="5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D42" s="10">
-        <v>1699</v>
+        <v>450</v>
       </c>
       <c r="E42" s="10">
-        <f t="shared" ref="E42" si="10">D42*C42</f>
-        <v>15291</v>
+        <f>D42*C42</f>
+        <v>1800</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I42" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J42" s="10">
-        <v>1699</v>
+        <v>450</v>
       </c>
       <c r="K42" s="10">
-        <f t="shared" ref="K42" si="11">J42*I42</f>
-        <v>11893</v>
+        <f>J42*I42</f>
+        <v>1800</v>
+      </c>
+      <c r="L42">
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C43" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D43" s="10">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="E43" s="10">
-        <f>D43*C43</f>
-        <v>1700</v>
+        <f t="shared" ref="E43" si="10">D43*C43</f>
+        <v>15291</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I43" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J43" s="10">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="K43" s="10">
-        <f>J43*I43</f>
-        <v>1700</v>
+        <f t="shared" ref="K43" si="11">J43*I43</f>
+        <v>11893</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C44" s="5">
-        <f>2*C42+2*C43</f>
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D44" s="10">
-        <v>0.5</v>
+        <v>1700</v>
       </c>
       <c r="E44" s="10">
         <f>D44*C44</f>
-        <v>10</v>
+        <v>1700</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I44" s="5">
-        <f>2*I42+2*I43</f>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J44" s="10">
-        <v>0.5</v>
+        <v>1700</v>
       </c>
       <c r="K44" s="10">
         <f>J44*I44</f>
-        <v>8</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C45" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="C45" s="5">
+        <f>2*C43+2*C44</f>
+        <v>20</v>
+      </c>
       <c r="D45" s="10">
-        <v>0.85</v>
+        <v>0.5</v>
       </c>
       <c r="E45" s="10">
-        <f t="shared" ref="E45:E48" si="12">D45*C45</f>
-        <v>0</v>
+        <f>D45*C45</f>
+        <v>10</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I45" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="I45" s="5">
+        <f>2*I43+2*I44</f>
+        <v>16</v>
+      </c>
       <c r="J45" s="10">
-        <v>0.85</v>
+        <v>0.5</v>
       </c>
       <c r="K45" s="10">
-        <f t="shared" ref="K45:K49" si="13">J45*I45</f>
-        <v>0</v>
+        <f>J45*I45</f>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="E46" s="10">
+        <f t="shared" ref="E46:E49" si="12">D46*C46</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="K46" s="10">
+        <f t="shared" ref="K46:K50" si="13">J46*I46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C46" s="10">
-        <v>1</v>
-      </c>
-      <c r="D46" s="10">
+      <c r="C47" s="10">
+        <v>1</v>
+      </c>
+      <c r="D47" s="10">
         <v>1190</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E47" s="10">
         <f t="shared" si="12"/>
         <v>1190</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I46" s="10">
-        <v>1</v>
-      </c>
-      <c r="J46" s="10">
+      <c r="I47" s="10">
+        <v>1</v>
+      </c>
+      <c r="J47" s="10">
         <v>1190</v>
       </c>
-      <c r="K46" s="10">
+      <c r="K47" s="10">
         <f t="shared" si="13"/>
         <v>1190</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="25">
+      <c r="C48" s="25">
         <v>3</v>
       </c>
-      <c r="D47" s="26">
+      <c r="D48" s="26">
         <v>12</v>
       </c>
-      <c r="E47" s="26">
+      <c r="E48" s="26">
         <f t="shared" si="12"/>
         <v>36</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I47" s="25">
-        <v>1</v>
-      </c>
-      <c r="J47" s="26">
+      <c r="I48" s="25">
+        <v>1</v>
+      </c>
+      <c r="J48" s="26">
         <v>3935</v>
       </c>
-      <c r="K47" s="26">
+      <c r="K48" s="26">
         <f t="shared" si="13"/>
         <v>3935</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C49" s="10">
         <v>27</v>
       </c>
-      <c r="D48" s="26">
+      <c r="D49" s="26">
         <v>13</v>
       </c>
-      <c r="E48" s="26">
+      <c r="E49" s="26">
         <f t="shared" si="12"/>
         <v>351</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I48" s="25">
-        <v>2</v>
-      </c>
-      <c r="J48" s="26">
+      <c r="I49" s="25">
+        <v>2</v>
+      </c>
+      <c r="J49" s="26">
         <v>12</v>
       </c>
-      <c r="K48" s="26">
+      <c r="K49" s="26">
         <f t="shared" si="13"/>
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G49" s="12"/>
-      <c r="H49" s="1" t="s">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G50" s="12"/>
+      <c r="H50" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I49" s="29">
+      <c r="I50" s="29">
         <v>21</v>
       </c>
-      <c r="J49" s="26">
+      <c r="J50" s="26">
         <v>13</v>
       </c>
-      <c r="K49" s="26">
+      <c r="K50" s="26">
         <f t="shared" si="13"/>
         <v>273</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-    </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="2" t="s">
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="H51" s="12"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H52" s="21"/>
-      <c r="L52">
-        <v>3</v>
-      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="H52" s="12"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" s="5">
-        <v>1</v>
-      </c>
-      <c r="D53" s="10">
-        <v>450</v>
-      </c>
-      <c r="E53" s="10">
-        <f>D53*C53</f>
-        <v>450</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I53" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J53" s="9" t="s">
+      <c r="D53" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K53" s="9" t="s">
+      <c r="E53" s="9" t="s">
         <v>8</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H53" s="21"/>
+      <c r="L53">
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C54" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D54" s="10">
-        <v>1699</v>
+        <v>450</v>
       </c>
       <c r="E54" s="10">
-        <f t="shared" ref="E54" si="14">D54*C54</f>
-        <v>3398</v>
-      </c>
-      <c r="H54" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10">
-        <f t="shared" ref="K54:K59" si="15">I54*J54</f>
-        <v>0</v>
+        <f>D54*C54</f>
+        <v>450</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K54" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C55" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55" s="10">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="E55" s="10">
-        <f>D55*C55</f>
-        <v>1700</v>
+        <f t="shared" ref="E55" si="14">D55*C55</f>
+        <v>3398</v>
       </c>
       <c r="H55" s="19" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I55" s="10"/>
       <c r="J55" s="10"/>
       <c r="K55" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="K55:K60" si="15">I55*J55</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C56" s="5">
-        <f>2*C54+2*C55</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D56" s="10">
-        <v>0.5</v>
+        <v>1700</v>
       </c>
       <c r="E56" s="10">
         <f>D56*C56</f>
-        <v>3</v>
+        <v>1700</v>
       </c>
       <c r="H56" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="I56" s="10">
-        <v>1</v>
-      </c>
-      <c r="J56" s="10">
-        <v>20000</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
       <c r="K56" s="10">
         <f t="shared" si="15"/>
-        <v>20000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C57" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="C57" s="5">
+        <f>2*C55+2*C56</f>
+        <v>6</v>
+      </c>
       <c r="D57" s="10">
-        <v>0.85</v>
+        <v>0.5</v>
       </c>
       <c r="E57" s="10">
-        <f t="shared" ref="E57:E61" si="16">D57*C57</f>
-        <v>0</v>
-      </c>
-      <c r="H57" s="28" t="s">
-        <v>35</v>
+        <f>D57*C57</f>
+        <v>3</v>
+      </c>
+      <c r="H57" s="19" t="s">
+        <v>31</v>
       </c>
       <c r="I57" s="10">
         <v>1</v>
       </c>
       <c r="J57" s="10">
-        <v>1400</v>
+        <v>20000</v>
       </c>
       <c r="K57" s="10">
         <f t="shared" si="15"/>
-        <v>1400</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="E58" s="10">
+        <f t="shared" ref="E58:E62" si="16">D58*C58</f>
+        <v>0</v>
+      </c>
+      <c r="H58" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="I58" s="10">
+        <v>1</v>
+      </c>
+      <c r="J58" s="10">
+        <v>1400</v>
+      </c>
+      <c r="K58" s="10">
+        <f t="shared" si="15"/>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C58" s="10">
-        <v>1</v>
-      </c>
-      <c r="D58" s="10">
+      <c r="C59" s="10">
+        <v>1</v>
+      </c>
+      <c r="D59" s="10">
         <v>1190</v>
       </c>
-      <c r="E58" s="10">
+      <c r="E59" s="10">
         <f t="shared" si="16"/>
         <v>1190</v>
       </c>
-      <c r="H58" s="28" t="s">
+      <c r="H59" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="I58" s="10">
+      <c r="I59" s="10">
         <v>16</v>
       </c>
-      <c r="J58" s="10">
+      <c r="J59" s="10">
         <v>12</v>
       </c>
-      <c r="K58" s="10">
+      <c r="K59" s="10">
         <f t="shared" si="15"/>
         <v>192</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="25">
-        <v>1</v>
-      </c>
-      <c r="D59" s="26">
+      <c r="C60" s="25">
+        <v>1</v>
+      </c>
+      <c r="D60" s="26">
         <v>195</v>
       </c>
-      <c r="E59" s="26">
+      <c r="E60" s="26">
         <f t="shared" si="16"/>
         <v>195</v>
       </c>
-      <c r="H59" s="28" t="s">
+      <c r="H60" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="I59" s="10">
+      <c r="I60" s="10">
         <v>7</v>
       </c>
-      <c r="J59" s="26">
+      <c r="J60" s="26">
         <v>60</v>
       </c>
-      <c r="K59" s="10">
+      <c r="K60" s="10">
         <f t="shared" si="15"/>
         <v>420</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C60" s="25">
-        <v>1</v>
-      </c>
-      <c r="D60" s="26">
+      <c r="C61" s="25">
+        <v>1</v>
+      </c>
+      <c r="D61" s="26">
         <v>12</v>
       </c>
-      <c r="E60" s="26">
+      <c r="E61" s="26">
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
+    <row r="62" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C61" s="10">
+      <c r="C62" s="10">
         <v>6</v>
       </c>
-      <c r="D61" s="26">
+      <c r="D62" s="26">
         <v>13</v>
       </c>
-      <c r="E61" s="26">
+      <c r="E62" s="26">
         <f t="shared" si="16"/>
         <v>78</v>
       </c>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18"/>
-      <c r="K61" s="18"/>
-    </row>
-    <row r="62" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D62" s="27"/>
       <c r="I62" s="18"/>
       <c r="J62" s="18"/>
       <c r="K62" s="18"/>
     </row>
     <row r="63" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H63" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="I63" s="18">
-        <f>C61+I49+C48+I36+I20+C22+I9+C9</f>
-        <v>218</v>
-      </c>
+      <c r="D63" s="27"/>
+      <c r="I63" s="18"/>
       <c r="J63" s="18"/>
       <c r="K63" s="18"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H64" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="I64" s="18">
+        <f>C62+I50+C49+I37+I20+C24+I9+C9</f>
+        <v>218</v>
+      </c>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
+    </row>
+    <row r="65" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="H65" s="30" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F66" s="13" t="s">
+    <row r="67" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F67" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="6:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="F67" s="16"/>
-    </row>
-    <row r="68" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F68" s="14" t="s">
+    <row r="68" spans="6:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="F68" s="16"/>
+    </row>
+    <row r="69" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F69" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F69" s="15"/>
-    </row>
     <row r="70" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F70" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I70" s="18">
-        <v>400.15</v>
-      </c>
+      <c r="F70" s="15"/>
     </row>
     <row r="71" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F71" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I71" s="18">
-        <v>450.2</v>
+        <v>400.15</v>
       </c>
     </row>
     <row r="72" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F72" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I72" s="18">
+        <v>450.2</v>
+      </c>
+    </row>
+    <row r="73" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F73" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I72" s="17">
+      <c r="I73" s="17">
         <v>620.29999999999995</v>
       </c>
-    </row>
-    <row r="73" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F73" s="17"/>
     </row>
     <row r="74" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F74" s="17"/>
     </row>
     <row r="75" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F75" s="17" t="s">
+      <c r="F75" s="17"/>
+    </row>
+    <row r="76" spans="6:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F76" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I75" s="20"/>
+      <c r="I76" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
